--- a/excel_generator_service/assets/templates/plantilla_inventario_computo.xlsx
+++ b/excel_generator_service/assets/templates/plantilla_inventario_computo.xlsx
@@ -8,26 +8,53 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1_2" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1_2!$A$1:$AN$8</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">INVENTARIO DE CÓMPUTO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">INVENTARIO DE EQUIPO DE CÓMPUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFTWARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBICACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACIÓN DEL EQUIPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO RESPONSABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIO FINAL</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">INVENTARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPO PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA REGISTRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIPO DE EQUIPO</t>
   </si>
   <si>
@@ -49,19 +76,67 @@
     <t xml:space="preserve">MEMORIA</t>
   </si>
   <si>
-    <t xml:space="preserve">COMPONENTES</t>
-  </si>
-  <si>
     <t xml:space="preserve">SISTEMA OPERATIVO INSTALADO</t>
   </si>
   <si>
+    <t xml:space="preserve">ETIQUETA DE SISTEMA OPERATIVO</t>
+  </si>
+  <si>
     <t xml:space="preserve">OFFICE INSTALADO</t>
   </si>
   <si>
-    <t xml:space="preserve">USUARIO ASIGNADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBICACIÓN</t>
+    <t xml:space="preserve">DIRECCIÓN FISICA DEL EQUIPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO DE EDIFICIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE DEL EDIFICIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO DE USO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE DEL EQUIPO EN DOMINIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCIÓN ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBDIRECCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPEDIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE COMPLETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APELLIDO PATERNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APELLIDO MATERNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPRESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUESTO</t>
   </si>
   <si>
     <t xml:space="preserve">OBSERVACIONES</t>
@@ -71,16 +146,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0;;;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -98,8 +175,40 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="28"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFCCFF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -110,14 +219,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,20 +229,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2A6099"/>
-        <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.25"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF1F497D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF666699"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FF376092"/>
       </patternFill>
     </fill>
     <fill>
@@ -150,12 +247,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.25"/>
+        <bgColor rgb="FF1F497D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.25"/>
-        <bgColor rgb="FF800000"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -164,14 +279,84 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
       <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,8 +380,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,51 +393,305 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="20"/>
   </cellStyles>
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF376092"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666699"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF993366"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF17375E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF77933C"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -261,21 +703,21 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF127A02"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF77933C"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF2A6099"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF376092"/>
+      <rgbColor rgb="FFFFCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -300,13 +742,13 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF17375E"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF7A2E02"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF1F497D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -320,17 +762,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>692640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:colOff>808560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 1" descr=""/>
+        <xdr:cNvPr id="0" name="Imagen 2" descr="Recorte de pantalla"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -339,45 +781,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1967040" cy="665280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>629640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr="Picture"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1904040" cy="665640"/>
+          <a:off x="0" y="123840"/>
+          <a:ext cx="1656360" cy="442080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -503,146 +908,600 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AQ1048576"/>
+  <dimension ref="A1:AN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="24.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="41.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="43.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="24.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="42.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="25.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="61.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="17.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="30.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="148.06"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="2" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="11"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="C4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="D4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="G4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="H4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="I4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
+      <c r="J4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN4" s="39" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="44"/>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="40"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+    </row>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:G4"/>
+  <autoFilter ref="A1:AN8"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
   </mergeCells>
+  <dataValidations count="11">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E5:E8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H6:H8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Indicar valor de lista desplegable" errorStyle="stop" errorTitle="Validar información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L5:M8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Indicar valor de lista desplegable" errorStyle="stop" errorTitle="Validar información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N5:N8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Ingresar registro de lista desplegable" errorStyle="stop" errorTitle="Validar información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R5:R8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Indicar dato de lista desplegable" errorStyle="stop" errorTitle="Validar información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T5:T8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Indicar un valor de lista desplegable" errorStyle="stop" errorTitle="Verificar Estatus" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V5:V8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="W5:W8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="X5:X8" type="list">
+      <formula1>INDIRECT(#REF!)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Indicar valor de lista desplegable" errorStyle="stop" errorTitle="Validad información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE5:AE8 AL5:AL8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Indicar valor de lista desplegable" errorStyle="stop" errorTitle="Validar dato" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF5:AF8 AM5:AM8" type="list">
+      <formula1>#¿NOMBRE?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/excel_generator_service/assets/templates/plantilla_inventario_computo.xlsx
+++ b/excel_generator_service/assets/templates/plantilla_inventario_computo.xlsx
@@ -158,6 +158,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,13 +231,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.25"/>
-        <bgColor rgb="FF1F497D"/>
+        <bgColor rgb="FF18A303"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF666699"/>
-        <bgColor rgb="FF376092"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -248,13 +249,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.25"/>
-        <bgColor rgb="FF1F497D"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.25"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF800000"/>
       </patternFill>
     </fill>
     <fill>
@@ -270,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -301,42 +302,45 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -348,10 +352,8 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -384,13 +386,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -398,7 +400,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -406,7 +408,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -418,11 +420,7 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -430,131 +428,87 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -562,35 +516,35 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
@@ -603,11 +557,11 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Excel Built-in Heading 1" xfId="20"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF376092"/>
+          <fgColor rgb="FF127A02"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -678,15 +632,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF17375E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF77933C"/>
+          <fgColor rgb="FF7A2E02"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -703,20 +649,20 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF127A02"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF77933C"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF376092"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFFFCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -742,13 +688,13 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF17375E"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF18A303"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF7A2E02"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF1F497D"/>
+      <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -766,9 +712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>808560</xdr:colOff>
+      <xdr:colOff>807840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -782,7 +728,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="123840"/>
-          <a:ext cx="1656360" cy="442080"/>
+          <a:ext cx="1655640" cy="441360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,41 +854,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN1048576"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="24.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="20.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="42.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="49.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="25.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="61.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="61.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="21.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="28.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="17.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="30.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="148.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="1" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="23.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="1" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="22.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="21.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="36.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="148.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -973,7 +929,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="9"/>
+      <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -1015,7 +971,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="9"/>
+      <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
@@ -1032,467 +988,402 @@
       <c r="AN2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="15" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="21" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="24" t="s">
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="27" t="s">
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="11"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+    <row r="4" customFormat="false" ht="48.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="X4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Y4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="37" t="s">
+      <c r="Z4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AB4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AC4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="38" t="s">
+      <c r="AD4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="38" t="s">
+      <c r="AE4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AF4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="33" t="s">
+      <c r="AG4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AH4" s="33" t="s">
+      <c r="AH4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AI4" s="33" t="s">
+      <c r="AI4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="33" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AK4" s="33" t="s">
+      <c r="AK4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AL4" s="33" t="s">
+      <c r="AL4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AM4" s="33" t="s">
+      <c r="AM4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AN4" s="39" t="s">
+      <c r="AN4" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="44"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="29"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="34"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="34"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="39"/>
     </row>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AN8"/>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="D1:G2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AM3"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="C5:C8"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E5:E8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H6:H8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Indicar valor de lista desplegable" errorStyle="stop" errorTitle="Validar información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L5:M8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Indicar valor de lista desplegable" errorStyle="stop" errorTitle="Validar información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N5:N8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Ingresar registro de lista desplegable" errorStyle="stop" errorTitle="Validar información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R5:R8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Indicar dato de lista desplegable" errorStyle="stop" errorTitle="Validar información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T5:T8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Indicar un valor de lista desplegable" errorStyle="stop" errorTitle="Verificar Estatus" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V5:V8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="W5:W8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="X5:X8" type="list">
-      <formula1>INDIRECT(#REF!)</formula1>
+      <formula1>INDIRECT(#ref!)</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Indicar valor de lista desplegable" errorStyle="stop" errorTitle="Validad información" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE5:AE8 AL5:AL8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Indicar valor de lista desplegable" errorStyle="stop" errorTitle="Validar dato" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF5:AF8 AM5:AM8" type="list">
-      <formula1>#¿NOMBRE?</formula1>
+      <formula1>#¿nombre?</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
